--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Box\Personal_603214\External\AKASH\AR_IntelBot1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12895653-F511-4F16-9CDF-C26C54FA542F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CEEDF0-5A52-48C9-9EDA-E81E7D56AC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -355,6 +355,15 @@
   </si>
   <si>
     <t>AR_Intel_TSI_Status</t>
+  </si>
+  <si>
+    <t>UserName_TSIPortal</t>
+  </si>
+  <si>
+    <t>Password_TSIPortal</t>
+  </si>
+  <si>
+    <t>Tsi605245</t>
   </si>
 </sst>
 </file>
@@ -413,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -424,6 +433,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -741,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -824,7 +834,7 @@
       <c r="A7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -863,11 +873,11 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
       <c r="B14" t="s">
         <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
@@ -938,8 +948,22 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27">
+        <v>605245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1912,11 +1936,8 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{E7E444B4-4C5B-4861-B3EB-09DFFF4785E4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
